--- a/biology/Zoologie/Compsocerus_violaceus/Compsocerus_violaceus.xlsx
+++ b/biology/Zoologie/Compsocerus_violaceus/Compsocerus_violaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compsocerus violaceus est une espèce de coléoptères de la famille des Cerambycidae (capricornes). On le trouve en Amérique du Sud, où il est commun dans le Sud du Brésil, le Nord de l'Argentine et en Uruguay[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compsocerus violaceus est une espèce de coléoptères de la famille des Cerambycidae (capricornes). On le trouve en Amérique du Sud, où il est commun dans le Sud du Brésil, le Nord de l'Argentine et en Uruguay,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Compsocerus violaceus a été décrite pour la première fois en 1853 par le zoologiste écossais Adam White (1817-1878) sous le protonyme d’Orthostoma violaceum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Compsocerus violaceus a été décrite pour la première fois en 1853 par le zoologiste écossais Adam White (1817-1878) sous le protonyme d’Orthostoma violaceum.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Ravageur agricole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsocerus violaceus est considéré comme un ravageur agricole, attaquant plusieurs espèces d'arbres cultivées, telles que les acacias, les eucalyptus, les saules, les figuiers, les agrumes et les pêchers. 
-Il pond ses œufs sur des troncs d'arbres, généralement à l'intérieur de petites fissures de l'écorce. Après éclosion, les larves construisent une galerie sous l'écorce, dans des branches de diamètres entre 2 et 6 cm et commencent à se nourrir du bois, prenant environ 10 mois pour devenir adultes. Les adultes se nourrissent de fruits, de fleurs et de la sève qui s'échappe du troncs des arbres blessés[4].
-Les espèces qui servent d'hôte à Compsocerus violaceus comprennent notamment[3],[4],[5] : 
+Il pond ses œufs sur des troncs d'arbres, généralement à l'intérieur de petites fissures de l'écorce. Après éclosion, les larves construisent une galerie sous l'écorce, dans des branches de diamètres entre 2 et 6 cm et commencent à se nourrir du bois, prenant environ 10 mois pour devenir adultes. Les adultes se nourrissent de fruits, de fleurs et de la sève qui s'échappe du troncs des arbres blessés.
+Les espèces qui servent d'hôte à Compsocerus violaceus comprennent notamment : 
 famille des Anacardiaceae :
 Schinopsis balansae Engl.
 Schinus molle L.
